--- a/NotesMarketPlaceHTML/Database/Notes_Market_Place_(Excelsheet).xlsx
+++ b/NotesMarketPlaceHTML/Database/Notes_Market_Place_(Excelsheet).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="209">
   <si>
     <t>Notes - MarketPlace</t>
   </si>
@@ -360,9 +360,6 @@
     <t>Seller(Required Information)</t>
   </si>
   <si>
-    <t>Remark</t>
-  </si>
-  <si>
     <t>Date and Time when userID created a record.</t>
   </si>
   <si>
@@ -727,15 +724,6 @@
     <t>CountryID</t>
   </si>
   <si>
-    <t>FOREIGN KEY relationship with Add/EditCategory table</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY relationship with Add/EditType table</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY relationship with Add/EditCountry table</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -796,9 +784,6 @@
   </si>
   <si>
     <t>FilePath*</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY relationship with SellerNotes table</t>
   </si>
   <si>
     <r>
@@ -847,6 +832,15 @@
   </si>
   <si>
     <t>This table contains information about the details that the user enters for itself after user verifies email and does first login</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY relationship with AddEditCategory table</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY relationship with AddEditType table</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY relationship with AddEditCountry table</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1100,57 +1094,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1163,11 +1106,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C97" sqref="A91:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1479,40 +1467,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -1563,7 +1551,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>16</v>
@@ -1580,7 +1568,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
@@ -1631,7 +1619,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>16</v>
@@ -1648,7 +1636,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
@@ -1754,7 +1742,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="51" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="52"/>
@@ -1763,13 +1751,13 @@
       <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1">
       <c r="A25" s="1" t="s">
@@ -1913,7 +1901,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="52"/>
@@ -1922,13 +1910,13 @@
       <c r="E36" s="53"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
+      <c r="A37" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
     </row>
     <row r="38" spans="1:5" s="25" customFormat="1">
       <c r="A38" s="1" t="s">
@@ -1964,7 +1952,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>10</v>
@@ -1974,12 +1962,12 @@
         <v>11</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>16</v>
@@ -2006,7 +1994,7 @@
         <v>26</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2028,7 +2016,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>16</v>
@@ -2045,7 +2033,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>16</v>
@@ -2062,7 +2050,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>54</v>
@@ -2079,7 +2067,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>16</v>
@@ -2096,7 +2084,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>16</v>
@@ -2274,13 +2262,13 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="60"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="28" t="s">
@@ -2325,7 +2313,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>10</v>
@@ -2335,12 +2323,12 @@
         <v>11</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>10</v>
@@ -2350,12 +2338,12 @@
         <v>11</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>10</v>
@@ -2365,12 +2353,12 @@
         <v>11</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>10</v>
@@ -2380,24 +2368,24 @@
         <v>11</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="13" customFormat="1" ht="30">
-      <c r="A69" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="66">
+      <c r="A69" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="47">
         <v>50</v>
       </c>
-      <c r="D69" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="65" t="s">
-        <v>187</v>
+      <c r="D69" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2414,7 +2402,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2485,7 +2473,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>16</v>
@@ -2553,14 +2541,12 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="21">
-        <v>20</v>
-      </c>
+      <c r="C79" s="21"/>
       <c r="D79" s="19" t="s">
         <v>11</v>
       </c>
@@ -2573,9 +2559,11 @@
         <v>86</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="21"/>
+        <v>187</v>
+      </c>
+      <c r="C80" s="21">
+        <v>20</v>
+      </c>
       <c r="D80" s="19" t="s">
         <v>11</v>
       </c>
@@ -2600,7 +2588,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>16</v>
@@ -2612,12 +2600,12 @@
         <v>26</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="18" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B83" s="32" t="s">
         <v>16</v>
@@ -2629,7 +2617,7 @@
         <v>11</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2644,7 +2632,7 @@
         <v>26</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2659,7 +2647,7 @@
         <v>26</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2714,22 +2702,22 @@
       <c r="C90" s="38"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B91" s="67"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
+      <c r="A91" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="53"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="B92" s="58"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
+      <c r="A92" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="56"/>
     </row>
     <row r="93" spans="1:5" s="25" customFormat="1">
       <c r="A93" s="1" t="s">
@@ -2744,12 +2732,12 @@
       <c r="D93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B94" s="32" t="s">
@@ -2759,13 +2747,13 @@
       <c r="D94" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="19" t="s">
-        <v>199</v>
+      <c r="A95" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="B95" s="32" t="s">
         <v>10</v>
@@ -2774,13 +2762,13 @@
       <c r="D95" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="32" t="s">
-        <v>202</v>
+      <c r="E95" s="33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="32" t="s">
-        <v>200</v>
+      <c r="A96" s="31" t="s">
+        <v>196</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>16</v>
@@ -2791,25 +2779,25 @@
       <c r="D96" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="32" t="s">
-        <v>204</v>
+      <c r="E96" s="33" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="13" customFormat="1" ht="30">
-      <c r="A97" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="B97" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="66" t="s">
+      <c r="A97" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="68" t="s">
-        <v>203</v>
+      <c r="D97" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="46" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2824,7 +2812,7 @@
         <v>26</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2839,7 +2827,7 @@
         <v>26</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2902,8 +2890,8 @@
       <c r="E104" s="19"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="44" t="s">
-        <v>101</v>
+      <c r="A105" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="B105" s="52"/>
       <c r="C105" s="52"/>
@@ -2911,13 +2899,13 @@
       <c r="E105" s="53"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" s="58"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="59"/>
+      <c r="A106" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="56"/>
     </row>
     <row r="107" spans="1:5" s="25" customFormat="1">
       <c r="A107" s="1" t="s">
@@ -2953,7 +2941,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>10</v>
@@ -2962,8 +2950,8 @@
       <c r="D109" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E109" s="32" t="s">
-        <v>202</v>
+      <c r="E109" s="33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2980,7 +2968,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2997,12 +2985,12 @@
         <v>11</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B112" s="32" t="s">
         <v>16</v>
@@ -3014,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3036,7 +3024,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>16</v>
@@ -3045,15 +3033,15 @@
         <v>50</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B115" s="32" t="s">
         <v>16</v>
@@ -3065,7 +3053,7 @@
         <v>11</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3080,7 +3068,7 @@
         <v>26</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3095,7 +3083,7 @@
         <v>26</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3135,8 +3123,8 @@
       <c r="C121" s="38"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="44" t="s">
-        <v>111</v>
+      <c r="A122" s="51" t="s">
+        <v>110</v>
       </c>
       <c r="B122" s="52"/>
       <c r="C122" s="52"/>
@@ -3144,13 +3132,13 @@
       <c r="E122" s="53"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B123" s="58"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="59"/>
+      <c r="A123" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="56"/>
     </row>
     <row r="124" spans="1:5" s="25" customFormat="1">
       <c r="A124" s="1" t="s">
@@ -3186,7 +3174,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>16</v>
@@ -3198,12 +3186,12 @@
         <v>11</v>
       </c>
       <c r="E126" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>16</v>
@@ -3215,12 +3203,12 @@
         <v>11</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>16</v>
@@ -3232,12 +3220,12 @@
         <v>11</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>16</v>
@@ -3249,12 +3237,12 @@
         <v>26</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>16</v>
@@ -3266,12 +3254,12 @@
         <v>26</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>16</v>
@@ -3283,12 +3271,12 @@
         <v>26</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="13" customFormat="1" ht="30">
       <c r="A132" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132" s="35" t="s">
         <v>74</v>
@@ -3298,22 +3286,22 @@
         <v>11</v>
       </c>
       <c r="E132" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="30">
       <c r="A133" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B133" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="B133" s="35" t="s">
-        <v>128</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="42" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3328,7 +3316,7 @@
         <v>26</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3343,7 +3331,7 @@
         <v>26</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3377,8 +3365,8 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="44" t="s">
-        <v>130</v>
+      <c r="A140" s="51" t="s">
+        <v>129</v>
       </c>
       <c r="B140" s="52"/>
       <c r="C140" s="52"/>
@@ -3386,13 +3374,13 @@
       <c r="E140" s="53"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="B141" s="58"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="59"/>
+      <c r="A141" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="56"/>
     </row>
     <row r="142" spans="1:5" s="25" customFormat="1">
       <c r="A142" s="1" t="s">
@@ -3428,7 +3416,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>16</v>
@@ -3440,7 +3428,7 @@
         <v>11</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3457,7 +3445,7 @@
         <v>11</v>
       </c>
       <c r="E145" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3472,7 +3460,7 @@
         <v>26</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3487,7 +3475,7 @@
         <v>26</v>
       </c>
       <c r="E147" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3502,7 +3490,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3517,12 +3505,12 @@
         <v>26</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="44" t="s">
-        <v>140</v>
+      <c r="A152" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="B152" s="52"/>
       <c r="C152" s="52"/>
@@ -3530,13 +3518,13 @@
       <c r="E152" s="53"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B153" s="58"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="59"/>
+      <c r="A153" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="55"/>
+      <c r="C153" s="55"/>
+      <c r="D153" s="55"/>
+      <c r="E153" s="56"/>
     </row>
     <row r="154" spans="1:5" s="25" customFormat="1">
       <c r="A154" s="1" t="s">
@@ -3572,7 +3560,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>16</v>
@@ -3584,7 +3572,7 @@
         <v>11</v>
       </c>
       <c r="E156" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3601,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3616,7 +3604,7 @@
         <v>26</v>
       </c>
       <c r="E158" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3631,7 +3619,7 @@
         <v>26</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3646,7 +3634,7 @@
         <v>26</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3661,12 +3649,12 @@
         <v>26</v>
       </c>
       <c r="E161" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="44" t="s">
-        <v>146</v>
+      <c r="A164" s="51" t="s">
+        <v>145</v>
       </c>
       <c r="B164" s="52"/>
       <c r="C164" s="52"/>
@@ -3674,13 +3662,13 @@
       <c r="E164" s="53"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="59"/>
+      <c r="A165" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" s="55"/>
+      <c r="C165" s="55"/>
+      <c r="D165" s="55"/>
+      <c r="E165" s="56"/>
     </row>
     <row r="166" spans="1:5" s="25" customFormat="1">
       <c r="A166" s="1" t="s">
@@ -3716,7 +3704,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>16</v>
@@ -3728,12 +3716,12 @@
         <v>11</v>
       </c>
       <c r="E168" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>16</v>
@@ -3745,7 +3733,7 @@
         <v>11</v>
       </c>
       <c r="E169" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3760,7 +3748,7 @@
         <v>26</v>
       </c>
       <c r="E170" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3775,7 +3763,7 @@
         <v>26</v>
       </c>
       <c r="E171" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3790,7 +3778,7 @@
         <v>26</v>
       </c>
       <c r="E172" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3805,12 +3793,12 @@
         <v>26</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="44" t="s">
-        <v>152</v>
+      <c r="A176" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="B176" s="52"/>
       <c r="C176" s="52"/>
@@ -3818,13 +3806,13 @@
       <c r="E176" s="53"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="B177" s="61"/>
-      <c r="C177" s="61"/>
-      <c r="D177" s="61"/>
-      <c r="E177" s="62"/>
+      <c r="A177" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B177" s="49"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="50"/>
     </row>
     <row r="178" spans="1:5" s="25" customFormat="1">
       <c r="A178" s="1" t="s">
@@ -3860,7 +3848,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>10</v>
@@ -3869,13 +3857,13 @@
       <c r="D180" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E180" s="32" t="s">
-        <v>109</v>
+      <c r="E180" s="33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>10</v>
@@ -3884,13 +3872,13 @@
       <c r="D181" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E181" s="32" t="s">
-        <v>178</v>
+      <c r="E181" s="33" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>16</v>
@@ -3902,7 +3890,7 @@
         <v>11</v>
       </c>
       <c r="E182" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3917,7 +3905,7 @@
         <v>26</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3932,7 +3920,7 @@
         <v>26</v>
       </c>
       <c r="E184" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3947,7 +3935,7 @@
         <v>26</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3962,12 +3950,12 @@
         <v>26</v>
       </c>
       <c r="E186" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="44" t="s">
-        <v>157</v>
+      <c r="A189" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="B189" s="52"/>
       <c r="C189" s="52"/>
@@ -3975,13 +3963,13 @@
       <c r="E189" s="53"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
-      <c r="D190" s="58"/>
-      <c r="E190" s="59"/>
+      <c r="A190" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B190" s="55"/>
+      <c r="C190" s="55"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="56"/>
     </row>
     <row r="191" spans="1:5" s="25" customFormat="1">
       <c r="A191" s="1" t="s">
@@ -4017,7 +4005,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B193" s="19" t="s">
         <v>16</v>
@@ -4029,7 +4017,7 @@
         <v>11</v>
       </c>
       <c r="E193" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4046,12 +4034,12 @@
         <v>11</v>
       </c>
       <c r="E194" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>16</v>
@@ -4063,12 +4051,12 @@
         <v>11</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>16</v>
@@ -4080,7 +4068,7 @@
         <v>11</v>
       </c>
       <c r="E196" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4095,7 +4083,7 @@
         <v>26</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4110,7 +4098,7 @@
         <v>26</v>
       </c>
       <c r="E198" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4125,7 +4113,7 @@
         <v>26</v>
       </c>
       <c r="E199" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4144,8 +4132,8 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="44" t="s">
-        <v>162</v>
+      <c r="A203" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="B203" s="52"/>
       <c r="C203" s="52"/>
@@ -4153,13 +4141,13 @@
       <c r="E203" s="53"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="B204" s="58"/>
-      <c r="C204" s="58"/>
-      <c r="D204" s="58"/>
-      <c r="E204" s="59"/>
+      <c r="A204" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B204" s="55"/>
+      <c r="C204" s="55"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="56"/>
     </row>
     <row r="205" spans="1:5" s="25" customFormat="1">
       <c r="A205" s="1" t="s">
@@ -4195,7 +4183,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B207" s="32" t="s">
         <v>10</v>
@@ -4204,28 +4192,30 @@
       <c r="D207" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E207" s="32" t="s">
-        <v>109</v>
+      <c r="E207" s="33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C208" s="19"/>
+        <v>187</v>
+      </c>
+      <c r="C208" s="21">
+        <v>5</v>
+      </c>
       <c r="D208" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E208" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>16</v>
@@ -4237,7 +4227,7 @@
         <v>11</v>
       </c>
       <c r="E209" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4252,7 +4242,7 @@
         <v>26</v>
       </c>
       <c r="E210" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4267,7 +4257,7 @@
         <v>26</v>
       </c>
       <c r="E211" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4282,7 +4272,7 @@
         <v>26</v>
       </c>
       <c r="E212" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4302,18 +4292,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A177:E177"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A165:E165"/>
     <mergeCell ref="A105:E105"/>
     <mergeCell ref="A106:E106"/>
     <mergeCell ref="A122:E122"/>
@@ -4329,6 +4307,18 @@
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A204:E204"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
